--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>933448.7646524162</v>
+        <v>928930.1698627044</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30168825.07796263</v>
+        <v>30168825.07796261</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7408878.579128027</v>
+        <v>7408878.579128025</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4698409.85807811</v>
+        <v>4698409.858078109</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>321.9191727794271</v>
+        <v>301.4858996704649</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.03163095145346</v>
+        <v>61.03163095145347</v>
       </c>
       <c r="T12" t="n">
         <v>136.2340891864179</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I13" t="n">
-        <v>38.73667633424179</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.035959813722016</v>
+        <v>7.035959813722023</v>
       </c>
       <c r="S13" t="n">
         <v>153.1115464721751</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>133.2244231261512</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>387.7812931403483</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>163.0057702095158</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.03163095145346</v>
+        <v>61.03163095145347</v>
       </c>
       <c r="T15" t="n">
         <v>136.2340891864179</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.33078139503003</v>
+        <v>12.56870577016928</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T16" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3346473620106</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.11976738061425</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>33.02512048875644</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>245.3640302627659</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.96555858353531</v>
+        <v>18.25853661495694</v>
       </c>
       <c r="H19" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I19" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U19" t="n">
         <v>277.3346473620106</v>
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>51.7051277462382</v>
+        <v>52.83462847224997</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T21" t="n">
         <v>136.2340891864179</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5413714187498</v>
+        <v>55.25997759762966</v>
       </c>
       <c r="I22" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>79.82072821602981</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3346473620106</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.16865934675411</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>3.783779008315582</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H24" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T24" t="n">
         <v>136.2340891864179</v>
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H25" t="n">
-        <v>106.6539800591597</v>
+        <v>49.05494686315667</v>
       </c>
       <c r="I25" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.035959813722023</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>58.55585281228366</v>
+        <v>215.9944954963674</v>
       </c>
       <c r="H26" t="n">
         <v>274.8164617558294</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6145573178477</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H27" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T27" t="n">
         <v>136.2340891864179</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.9411990514044</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>89.91442311712464</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S28" t="n">
         <v>153.1115464721751</v>
       </c>
       <c r="T28" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3346473620106</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>341.0466644235428</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>120.422329708058</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H30" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T30" t="n">
         <v>136.2340891864179</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>103.9048264625458</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T31" t="n">
-        <v>237.149349835783</v>
+        <v>96.35931602768716</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>231.99626025471</v>
+        <v>318.3433907252113</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T32" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H33" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T33" t="n">
         <v>136.2340891864179</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.5874732995718</v>
       </c>
       <c r="I34" t="n">
         <v>72.33078139503003</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.149349835783</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>77.26157125642476</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>140.5966578931245</v>
       </c>
       <c r="G35" t="n">
         <v>398.335634390144</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.157201493105449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H36" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T36" t="n">
         <v>136.2340891864179</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>137.4615016674321</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.1115464721751</v>
@@ -3483,10 +3483,10 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.8268214425173</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.65926901736314</v>
+        <v>10.10268050758685</v>
       </c>
       <c r="T38" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>34.56801225611578</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H39" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T39" t="n">
         <v>136.2340891864179</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>116.1340023751437</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U40" t="n">
         <v>277.3346473620106</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>199.7001323639554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>336.6185378269357</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>304.1433755172365</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H42" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145346</v>
       </c>
       <c r="T42" t="n">
         <v>136.2340891864179</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7151947094264</v>
+        <v>153.0723526857853</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>59.07981442974853</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3346473620106</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,13 +3979,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>317.4135166658007</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>80.48930884335559</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736312</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.06452160295639</v>
       </c>
       <c r="H45" t="n">
-        <v>42.71397774181507</v>
+        <v>42.71397774181506</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.03163095145347</v>
+        <v>61.03163095145345</v>
       </c>
       <c r="T45" t="n">
         <v>136.2340891864179</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.91298213445198</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7151947094264</v>
+        <v>35.39982763265584</v>
       </c>
       <c r="H46" t="n">
         <v>134.5413714187498</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.1115464721751</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.0990590343517</v>
+        <v>1320.075998886494</v>
       </c>
       <c r="C11" t="n">
-        <v>467.1983290476518</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="D11" t="n">
-        <v>467.1983290476518</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E11" t="n">
         <v>467.1983290476518</v>
@@ -5038,19 +5038,19 @@
         <v>42.07414723705196</v>
       </c>
       <c r="I11" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J11" t="n">
-        <v>218.2468288562428</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497114</v>
       </c>
       <c r="L11" t="n">
-        <v>697.9573333441462</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M11" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N11" t="n">
         <v>1310.954347754825</v>
@@ -5083,10 +5083,10 @@
         <v>2044.455574966373</v>
       </c>
       <c r="X11" t="n">
-        <v>1719.284693370992</v>
+        <v>1739.924363178024</v>
       </c>
       <c r="Y11" t="n">
-        <v>1313.947423325882</v>
+        <v>1739.924363178024</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>42.07414723705196</v>
       </c>
       <c r="I12" t="n">
-        <v>61.80940056264829</v>
+        <v>61.80940056264828</v>
       </c>
       <c r="J12" t="n">
-        <v>139.4939236196041</v>
+        <v>425.9352661328915</v>
       </c>
       <c r="K12" t="n">
-        <v>284.9693059505254</v>
+        <v>571.4106484638128</v>
       </c>
       <c r="L12" t="n">
-        <v>488.106323209401</v>
+        <v>774.5476657226884</v>
       </c>
       <c r="M12" t="n">
-        <v>728.3031320743905</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N12" t="n">
-        <v>977.1986405409339</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O12" t="n">
-        <v>1201.278688383526</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.966900987038</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R12" t="n">
         <v>1815.456240001607</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.3056991920787</v>
+        <v>853.3859491460516</v>
       </c>
       <c r="C13" t="n">
-        <v>554.3331360709947</v>
+        <v>681.4133860249676</v>
       </c>
       <c r="D13" t="n">
-        <v>554.3331360709947</v>
+        <v>681.4133860249676</v>
       </c>
       <c r="E13" t="n">
-        <v>554.3331360709947</v>
+        <v>515.2051801778211</v>
       </c>
       <c r="F13" t="n">
-        <v>382.4713618455551</v>
+        <v>343.3434059523815</v>
       </c>
       <c r="G13" t="n">
-        <v>217.1024783006798</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H13" t="n">
-        <v>81.20210313022548</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I13" t="n">
         <v>42.07414723705196</v>
@@ -5202,22 +5202,22 @@
         <v>161.1036919739774</v>
       </c>
       <c r="K13" t="n">
-        <v>488.7574867034314</v>
+        <v>318.6500362285149</v>
       </c>
       <c r="L13" t="n">
-        <v>839.9691473447018</v>
+        <v>802.7460687033135</v>
       </c>
       <c r="M13" t="n">
-        <v>1360.63671940322</v>
+        <v>916.8376159906898</v>
       </c>
       <c r="N13" t="n">
-        <v>1871.325195504846</v>
+        <v>1029.493169250436</v>
       </c>
       <c r="O13" t="n">
-        <v>1972.079955820779</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P13" t="n">
-        <v>2055.195488884412</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q13" t="n">
         <v>2103.707361852598</v>
@@ -5229,22 +5229,22 @@
         <v>1941.942203988055</v>
       </c>
       <c r="T13" t="n">
-        <v>1941.942203988055</v>
+        <v>1702.397406174133</v>
       </c>
       <c r="U13" t="n">
-        <v>1941.942203988055</v>
+        <v>1702.397406174133</v>
       </c>
       <c r="V13" t="n">
-        <v>1660.230736596084</v>
+        <v>1420.685938782162</v>
       </c>
       <c r="W13" t="n">
-        <v>1385.378332768597</v>
+        <v>1420.685938782162</v>
       </c>
       <c r="X13" t="n">
-        <v>1142.814436214402</v>
+        <v>1178.122042227967</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.4716679041444</v>
+        <v>1043.551917858117</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.650092975236</v>
+        <v>1032.378287849688</v>
       </c>
       <c r="C14" t="n">
-        <v>859.7493629885362</v>
+        <v>1032.378287849688</v>
       </c>
       <c r="D14" t="n">
-        <v>468.0510870891944</v>
+        <v>609.0856670346882</v>
       </c>
       <c r="E14" t="n">
-        <v>42.07414723705197</v>
+        <v>609.0856670346882</v>
       </c>
       <c r="F14" t="n">
-        <v>42.07414723705197</v>
+        <v>444.4333738937631</v>
       </c>
       <c r="G14" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H14" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I14" t="n">
-        <v>82.68042202224478</v>
+        <v>82.6804220222449</v>
       </c>
       <c r="J14" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K14" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L14" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441459</v>
       </c>
       <c r="M14" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N14" t="n">
         <v>1310.954347754825</v>
@@ -5296,34 +5296,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P14" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q14" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R14" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S14" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T14" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="U14" t="n">
-        <v>2103.707361852598</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="V14" t="n">
-        <v>2103.707361852598</v>
+        <v>1428.769637549341</v>
       </c>
       <c r="W14" t="n">
-        <v>2103.707361852598</v>
+        <v>1032.378287849688</v>
       </c>
       <c r="X14" t="n">
-        <v>1691.987363020346</v>
+        <v>1032.378287849688</v>
       </c>
       <c r="Y14" t="n">
-        <v>1286.650092975236</v>
+        <v>1032.378287849688</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F15" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G15" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H15" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I15" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J15" t="n">
-        <v>425.9352661328912</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K15" t="n">
-        <v>571.4106484638125</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L15" t="n">
-        <v>774.5476657226882</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.744474587678</v>
+        <v>728.3031320743902</v>
       </c>
       <c r="N15" t="n">
-        <v>1263.639983054221</v>
+        <v>977.1986405409334</v>
       </c>
       <c r="O15" t="n">
-        <v>1487.720030896813</v>
+        <v>1201.278688383526</v>
       </c>
       <c r="P15" t="n">
-        <v>1664.422401271943</v>
+        <v>1377.981058758656</v>
       </c>
       <c r="Q15" t="n">
         <v>1774.431386909859</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.4747813734828</v>
+        <v>728.1291256980617</v>
       </c>
       <c r="C16" t="n">
-        <v>754.4747813734828</v>
+        <v>556.1565625769776</v>
       </c>
       <c r="D16" t="n">
-        <v>754.4747813734828</v>
+        <v>392.8397897037484</v>
       </c>
       <c r="E16" t="n">
-        <v>588.2665755263363</v>
+        <v>226.6315838566019</v>
       </c>
       <c r="F16" t="n">
-        <v>416.4048013008967</v>
+        <v>54.76980963116233</v>
       </c>
       <c r="G16" t="n">
-        <v>251.0359177560215</v>
+        <v>54.76980963116233</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1355425855672</v>
+        <v>54.76980963116233</v>
       </c>
       <c r="I16" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J16" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K16" t="n">
-        <v>488.7574867034314</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L16" t="n">
-        <v>972.85351917823</v>
+        <v>972.8535191782299</v>
       </c>
       <c r="M16" t="n">
-        <v>1493.521091236748</v>
+        <v>1086.945066465606</v>
       </c>
       <c r="N16" t="n">
-        <v>1719.951698126947</v>
+        <v>1199.600619725352</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.706458442881</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P16" t="n">
-        <v>1903.821991506513</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q16" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R16" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S16" t="n">
-        <v>2103.707361852598</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T16" t="n">
-        <v>1864.162564038676</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="U16" t="n">
-        <v>1584.026556602302</v>
+        <v>1668.913226666551</v>
       </c>
       <c r="V16" t="n">
-        <v>1302.315089210331</v>
+        <v>1387.20175927458</v>
       </c>
       <c r="W16" t="n">
-        <v>1027.462685382844</v>
+        <v>1387.20175927458</v>
       </c>
       <c r="X16" t="n">
-        <v>784.8987888286487</v>
+        <v>1144.637862720385</v>
       </c>
       <c r="Y16" t="n">
-        <v>754.4747813734828</v>
+        <v>918.2950944101274</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1597.668384498443</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="C17" t="n">
-        <v>1170.767654511743</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="D17" t="n">
-        <v>1170.767654511743</v>
+        <v>893.1752688997942</v>
       </c>
       <c r="E17" t="n">
-        <v>744.7907146596008</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F17" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="G17" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H17" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I17" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J17" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562427</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L17" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441463</v>
       </c>
       <c r="M17" t="n">
         <v>1001.624145372458</v>
@@ -5533,34 +5533,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P17" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q17" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R17" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="S17" t="n">
-        <v>2103.707361852598</v>
+        <v>2070.348654288197</v>
       </c>
       <c r="T17" t="n">
-        <v>2103.707361852598</v>
+        <v>2070.348654288197</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.510839309318</v>
+        <v>2070.348654288197</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.510839309318</v>
+        <v>1712.859239414447</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.510839309318</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="X17" t="n">
-        <v>1597.668384498443</v>
+        <v>1316.467889714794</v>
       </c>
       <c r="Y17" t="n">
-        <v>1597.668384498443</v>
+        <v>1316.467889714794</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>178.214045565104</v>
       </c>
       <c r="G18" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H18" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I18" t="n">
-        <v>61.80940056264829</v>
+        <v>61.80940056264828</v>
       </c>
       <c r="J18" t="n">
         <v>139.4939236196041</v>
@@ -5600,22 +5600,22 @@
         <v>284.9693059505253</v>
       </c>
       <c r="L18" t="n">
-        <v>488.1063232094009</v>
+        <v>774.5476657226884</v>
       </c>
       <c r="M18" t="n">
-        <v>728.3031320743903</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.184482769315</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O18" t="n">
-        <v>1382.264530611908</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P18" t="n">
-        <v>1558.966900987038</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R18" t="n">
         <v>1815.456240001607</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>453.2767218705755</v>
+        <v>368.3900518063246</v>
       </c>
       <c r="C19" t="n">
-        <v>281.3041587494915</v>
+        <v>196.4174886852406</v>
       </c>
       <c r="D19" t="n">
-        <v>281.3041587494915</v>
+        <v>196.4174886852406</v>
       </c>
       <c r="E19" t="n">
-        <v>281.3041587494915</v>
+        <v>196.4174886852406</v>
       </c>
       <c r="F19" t="n">
-        <v>281.3041587494915</v>
+        <v>196.4174886852406</v>
       </c>
       <c r="G19" t="n">
-        <v>251.0359177560215</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H19" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I19" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J19" t="n">
-        <v>83.18197532575655</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K19" t="n">
-        <v>163.5531609411885</v>
+        <v>241.4748775894093</v>
       </c>
       <c r="L19" t="n">
-        <v>527.2129427713944</v>
+        <v>725.570910064208</v>
       </c>
       <c r="M19" t="n">
-        <v>1047.880514829912</v>
+        <v>1229.593820563998</v>
       </c>
       <c r="N19" t="n">
-        <v>1558.568990931539</v>
+        <v>1342.249373823744</v>
       </c>
       <c r="O19" t="n">
-        <v>1659.323751247472</v>
+        <v>1820.70645844288</v>
       </c>
       <c r="P19" t="n">
-        <v>2055.195488884412</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q19" t="n">
         <v>2103.707361852598</v>
@@ -5700,25 +5700,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S19" t="n">
-        <v>1949.049234102926</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T19" t="n">
-        <v>1949.049234102926</v>
+        <v>1864.162564038676</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.913226666552</v>
+        <v>1584.026556602301</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.201759274581</v>
+        <v>1302.31508921033</v>
       </c>
       <c r="W19" t="n">
-        <v>1112.349355447094</v>
+        <v>1027.462685382843</v>
       </c>
       <c r="X19" t="n">
-        <v>869.7854588928991</v>
+        <v>784.8987888286482</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.4426905826411</v>
+        <v>558.5560205183903</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1595.836823502843</v>
+        <v>1296.458285691063</v>
       </c>
       <c r="C20" t="n">
-        <v>1168.936093516143</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="D20" t="n">
-        <v>745.6434727011433</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="E20" t="n">
-        <v>319.6665328490009</v>
+        <v>869.5575557043629</v>
       </c>
       <c r="F20" t="n">
-        <v>319.6665328490009</v>
+        <v>444.4333738937631</v>
       </c>
       <c r="G20" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H20" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I20" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224495</v>
       </c>
       <c r="J20" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562427</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L20" t="n">
         <v>697.957333344146</v>
       </c>
       <c r="M20" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N20" t="n">
         <v>1310.954347754825</v>
@@ -5770,34 +5770,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P20" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q20" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R20" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="S20" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T20" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="U20" t="n">
-        <v>1992.228173202496</v>
+        <v>2050.339050264467</v>
       </c>
       <c r="V20" t="n">
-        <v>1992.228173202496</v>
+        <v>1692.849635390716</v>
       </c>
       <c r="W20" t="n">
-        <v>1595.836823502843</v>
+        <v>1296.458285691063</v>
       </c>
       <c r="X20" t="n">
-        <v>1595.836823502843</v>
+        <v>1296.458285691063</v>
       </c>
       <c r="Y20" t="n">
-        <v>1595.836823502843</v>
+        <v>1296.458285691063</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>178.214045565104</v>
       </c>
       <c r="G21" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H21" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I21" t="n">
         <v>61.80940056264829</v>
       </c>
       <c r="J21" t="n">
-        <v>425.9352661328915</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K21" t="n">
-        <v>571.4106484638128</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L21" t="n">
-        <v>774.5476657226884</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M21" t="n">
         <v>1014.744474587678</v>
@@ -5846,10 +5846,10 @@
         <v>1263.639983054221</v>
       </c>
       <c r="O21" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q21" t="n">
         <v>1774.431386909859</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>752.5334595974813</v>
+        <v>607.934849620247</v>
       </c>
       <c r="C22" t="n">
-        <v>580.5608964763973</v>
+        <v>435.9622864991629</v>
       </c>
       <c r="D22" t="n">
-        <v>417.244123603168</v>
+        <v>435.9622864991629</v>
       </c>
       <c r="E22" t="n">
-        <v>251.0359177560215</v>
+        <v>269.7540806520165</v>
       </c>
       <c r="F22" t="n">
-        <v>251.0359177560215</v>
+        <v>97.89230642657688</v>
       </c>
       <c r="G22" t="n">
-        <v>251.0359177560215</v>
+        <v>97.89230642657688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="I22" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="J22" t="n">
-        <v>161.1036919739774</v>
+        <v>142.3697388769601</v>
       </c>
       <c r="K22" t="n">
-        <v>488.7574867034314</v>
+        <v>470.023533606414</v>
       </c>
       <c r="L22" t="n">
-        <v>972.85351917823</v>
+        <v>954.1195660812127</v>
       </c>
       <c r="M22" t="n">
-        <v>1493.521091236748</v>
+        <v>1068.211113368589</v>
       </c>
       <c r="N22" t="n">
-        <v>1606.176644496494</v>
+        <v>1180.866666628335</v>
       </c>
       <c r="O22" t="n">
-        <v>1820.706458442881</v>
+        <v>1659.323751247472</v>
       </c>
       <c r="P22" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q22" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R22" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S22" t="n">
-        <v>2015.973333539718</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T22" t="n">
-        <v>1776.428535725795</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="U22" t="n">
-        <v>1496.292528289421</v>
+        <v>1823.571354416224</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.292528289421</v>
+        <v>1541.859887024252</v>
       </c>
       <c r="W22" t="n">
-        <v>1221.440124461934</v>
+        <v>1267.007483196765</v>
       </c>
       <c r="X22" t="n">
-        <v>978.8762279077392</v>
+        <v>1024.443586642571</v>
       </c>
       <c r="Y22" t="n">
-        <v>752.5334595974813</v>
+        <v>798.1008183323127</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1316.467889714794</v>
+        <v>725.8477585040107</v>
       </c>
       <c r="C23" t="n">
-        <v>1316.467889714794</v>
+        <v>725.8477585040107</v>
       </c>
       <c r="D23" t="n">
-        <v>893.1752688997942</v>
+        <v>725.8477585040107</v>
       </c>
       <c r="E23" t="n">
-        <v>467.1983290476518</v>
+        <v>725.8477585040107</v>
       </c>
       <c r="F23" t="n">
-        <v>42.07414723705196</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G23" t="n">
-        <v>42.07414723705196</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H23" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I23" t="n">
         <v>82.68042202224512</v>
       </c>
       <c r="J23" t="n">
-        <v>218.2468288562428</v>
+        <v>218.2468288562429</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497117</v>
       </c>
       <c r="L23" t="n">
-        <v>697.9573333441462</v>
+        <v>697.9573333441464</v>
       </c>
       <c r="M23" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N23" t="n">
         <v>1310.954347754825</v>
@@ -6007,10 +6007,10 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P23" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q23" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R23" t="n">
         <v>2103.707361852598</v>
@@ -6019,22 +6019,22 @@
         <v>2103.707361852598</v>
       </c>
       <c r="T23" t="n">
-        <v>2103.707361852598</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U23" t="n">
-        <v>2103.707361852598</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="V23" t="n">
-        <v>1746.217946978847</v>
+        <v>1533.959107035917</v>
       </c>
       <c r="W23" t="n">
-        <v>1746.217946978847</v>
+        <v>1137.567757336263</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.217946978847</v>
+        <v>725.8477585040107</v>
       </c>
       <c r="Y23" t="n">
-        <v>1340.880676933738</v>
+        <v>725.8477585040107</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>85.21957929949143</v>
       </c>
       <c r="H24" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I24" t="n">
-        <v>61.80940056264828</v>
+        <v>61.80940056264829</v>
       </c>
       <c r="J24" t="n">
-        <v>139.4939236196041</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K24" t="n">
-        <v>284.9693059505253</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L24" t="n">
-        <v>488.1063232094009</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M24" t="n">
-        <v>742.9724109957032</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N24" t="n">
         <v>1263.639983054221</v>
       </c>
       <c r="O24" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P24" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q24" t="n">
         <v>1774.431386909859</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.3056991920787</v>
+        <v>600.8278195053767</v>
       </c>
       <c r="C25" t="n">
-        <v>726.3056991920787</v>
+        <v>428.8552563842927</v>
       </c>
       <c r="D25" t="n">
-        <v>726.3056991920787</v>
+        <v>428.8552563842927</v>
       </c>
       <c r="E25" t="n">
-        <v>560.0974933449322</v>
+        <v>428.8552563842927</v>
       </c>
       <c r="F25" t="n">
-        <v>388.2357191194926</v>
+        <v>256.9934821588531</v>
       </c>
       <c r="G25" t="n">
-        <v>222.8668355746174</v>
+        <v>91.62459861397789</v>
       </c>
       <c r="H25" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I25" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J25" t="n">
-        <v>83.18197532575655</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K25" t="n">
         <v>163.5531609411885</v>
       </c>
       <c r="L25" t="n">
-        <v>310.8933256635996</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M25" t="n">
-        <v>831.5608977221176</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N25" t="n">
-        <v>1342.249373823744</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O25" t="n">
-        <v>1820.70645844288</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P25" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q25" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R25" t="n">
-        <v>2096.600331737727</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S25" t="n">
-        <v>1941.942203988055</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.942203988055</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="U25" t="n">
-        <v>1941.942203988055</v>
+        <v>1816.464324301353</v>
       </c>
       <c r="V25" t="n">
-        <v>1660.230736596084</v>
+        <v>1534.752856909382</v>
       </c>
       <c r="W25" t="n">
-        <v>1385.378332768597</v>
+        <v>1259.900453081895</v>
       </c>
       <c r="X25" t="n">
-        <v>1142.814436214402</v>
+        <v>1017.3365565277</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.4716679041444</v>
+        <v>790.9937882174423</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>804.7907987741571</v>
+        <v>1389.867702723439</v>
       </c>
       <c r="C26" t="n">
-        <v>804.7907987741571</v>
+        <v>962.9669727367395</v>
       </c>
       <c r="D26" t="n">
-        <v>804.7907987741571</v>
+        <v>962.9669727367395</v>
       </c>
       <c r="E26" t="n">
-        <v>378.8138589220147</v>
+        <v>962.9669727367395</v>
       </c>
       <c r="F26" t="n">
-        <v>378.8138589220147</v>
+        <v>537.8427909261397</v>
       </c>
       <c r="G26" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H26" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I26" t="n">
-        <v>82.68042202224495</v>
+        <v>82.68042202224498</v>
       </c>
       <c r="J26" t="n">
-        <v>218.2468288562426</v>
+        <v>218.2468288562427</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6707399497111</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L26" t="n">
-        <v>697.9573333441458</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M26" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N26" t="n">
         <v>1310.954347754825</v>
@@ -6244,34 +6244,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q26" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143957</v>
       </c>
       <c r="R26" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S26" t="n">
-        <v>2044.455574966372</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T26" t="n">
-        <v>1832.196735023441</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U26" t="n">
-        <v>1574.00021248016</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="V26" t="n">
-        <v>1216.51079760641</v>
+        <v>1786.259052423092</v>
       </c>
       <c r="W26" t="n">
-        <v>1216.51079760641</v>
+        <v>1389.867702723439</v>
       </c>
       <c r="X26" t="n">
-        <v>804.7907987741571</v>
+        <v>1389.867702723439</v>
       </c>
       <c r="Y26" t="n">
-        <v>804.7907987741571</v>
+        <v>1389.867702723439</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F27" t="n">
-        <v>178.2140455651039</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G27" t="n">
-        <v>85.21957929949141</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H27" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I27" t="n">
-        <v>85.2667064070601</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J27" t="n">
-        <v>162.9512294640159</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K27" t="n">
-        <v>308.4266117949371</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L27" t="n">
-        <v>511.5636290538127</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M27" t="n">
-        <v>751.7604379188022</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.655946385345</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O27" t="n">
-        <v>1487.720030896814</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P27" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R27" t="n">
         <v>1815.456240001607</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.7319240566523</v>
+        <v>636.3356604677705</v>
       </c>
       <c r="C28" t="n">
-        <v>42.07414723705195</v>
+        <v>636.3356604677705</v>
       </c>
       <c r="D28" t="n">
-        <v>42.07414723705195</v>
+        <v>545.5130108545133</v>
       </c>
       <c r="E28" t="n">
-        <v>42.07414723705195</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="F28" t="n">
-        <v>42.07414723705195</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G28" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H28" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I28" t="n">
-        <v>42.07414723705195</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="J28" t="n">
-        <v>112.182607696983</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K28" t="n">
-        <v>439.8364024264369</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5435413100706</v>
+        <v>596.4646255870651</v>
       </c>
       <c r="M28" t="n">
-        <v>1068.211113368588</v>
+        <v>1117.132197645583</v>
       </c>
       <c r="N28" t="n">
-        <v>1180.866666628334</v>
+        <v>1627.820673747209</v>
       </c>
       <c r="O28" t="n">
-        <v>1659.323751247471</v>
+        <v>1728.575434063143</v>
       </c>
       <c r="P28" t="n">
-        <v>2055.195488884411</v>
+        <v>1903.821991506513</v>
       </c>
       <c r="Q28" t="n">
-        <v>2103.707361852597</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="R28" t="n">
-        <v>2103.707361852597</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S28" t="n">
-        <v>1949.049234102926</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="T28" t="n">
-        <v>1709.504436289003</v>
+        <v>1941.942203988056</v>
       </c>
       <c r="U28" t="n">
-        <v>1429.368428852629</v>
+        <v>1661.806196551682</v>
       </c>
       <c r="V28" t="n">
-        <v>1147.656961460658</v>
+        <v>1380.09472915971</v>
       </c>
       <c r="W28" t="n">
-        <v>872.8045576331708</v>
+        <v>1105.242325332223</v>
       </c>
       <c r="X28" t="n">
-        <v>630.2406610789759</v>
+        <v>862.6784287780284</v>
       </c>
       <c r="Y28" t="n">
-        <v>403.897892768718</v>
+        <v>636.3356604677705</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1168.936093516143</v>
+        <v>1294.626724695463</v>
       </c>
       <c r="C29" t="n">
-        <v>1168.936093516143</v>
+        <v>867.725994708763</v>
       </c>
       <c r="D29" t="n">
-        <v>745.6434727011433</v>
+        <v>444.4333738937632</v>
       </c>
       <c r="E29" t="n">
-        <v>319.6665328490009</v>
+        <v>444.4333738937632</v>
       </c>
       <c r="F29" t="n">
-        <v>319.6665328490009</v>
+        <v>444.4333738937632</v>
       </c>
       <c r="G29" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H29" t="n">
         <v>42.07414723705197</v>
@@ -6466,19 +6466,19 @@
         <v>218.2468288562429</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6707399497118</v>
+        <v>429.670739949712</v>
       </c>
       <c r="L29" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441467</v>
       </c>
       <c r="M29" t="n">
         <v>1001.624145372458</v>
       </c>
       <c r="N29" t="n">
-        <v>1310.954347754825</v>
+        <v>1310.954347754826</v>
       </c>
       <c r="O29" t="n">
-        <v>1600.879106339949</v>
+        <v>1600.87910633995</v>
       </c>
       <c r="P29" t="n">
         <v>1842.716767506419</v>
@@ -6487,7 +6487,7 @@
         <v>2016.498708143957</v>
       </c>
       <c r="R29" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="S29" t="n">
         <v>2044.455574966373</v>
@@ -6499,16 +6499,16 @@
         <v>2044.455574966373</v>
       </c>
       <c r="V29" t="n">
-        <v>1686.966160092622</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W29" t="n">
-        <v>1290.574810392969</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X29" t="n">
-        <v>1290.574810392969</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="Y29" t="n">
-        <v>1168.936093516143</v>
+        <v>1639.118304921264</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>886.1587934274638</v>
+        <v>597.9076715764728</v>
       </c>
       <c r="C30" t="n">
-        <v>768.6528899449686</v>
+        <v>480.4017680939776</v>
       </c>
       <c r="D30" t="n">
-        <v>664.8129314602536</v>
+        <v>376.5618096092626</v>
       </c>
       <c r="E30" t="n">
-        <v>560.1109977331909</v>
+        <v>271.8598758821998</v>
       </c>
       <c r="F30" t="n">
-        <v>466.465167416095</v>
+        <v>178.214045565104</v>
       </c>
       <c r="G30" t="n">
-        <v>373.4707011504825</v>
+        <v>85.21957929949144</v>
       </c>
       <c r="H30" t="n">
-        <v>330.3252690880431</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I30" t="n">
-        <v>373.5178282580512</v>
+        <v>61.8094005626483</v>
       </c>
       <c r="J30" t="n">
-        <v>451.202351315007</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K30" t="n">
-        <v>596.6777336459284</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L30" t="n">
-        <v>799.814750904804</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M30" t="n">
-        <v>1040.011559769793</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N30" t="n">
-        <v>1288.907068236337</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O30" t="n">
-        <v>1512.987116078929</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P30" t="n">
-        <v>1952.673523122935</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q30" t="n">
-        <v>2062.68250876085</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R30" t="n">
-        <v>2103.707361852598</v>
+        <v>1815.456240001607</v>
       </c>
       <c r="S30" t="n">
-        <v>2042.059249780423</v>
+        <v>1753.808127929432</v>
       </c>
       <c r="T30" t="n">
-        <v>1904.449058683031</v>
+        <v>1616.19793683204</v>
       </c>
       <c r="U30" t="n">
-        <v>1719.750553755088</v>
+        <v>1431.499431904097</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.777414894354</v>
+        <v>1226.526293043363</v>
       </c>
       <c r="W30" t="n">
-        <v>1318.256037727571</v>
+        <v>1030.00491587658</v>
       </c>
       <c r="X30" t="n">
-        <v>1154.778691494234</v>
+        <v>866.5275696432432</v>
       </c>
       <c r="Y30" t="n">
-        <v>1015.085802847527</v>
+        <v>726.8346809965356</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>648.5260592426994</v>
+        <v>917.7915542467122</v>
       </c>
       <c r="C31" t="n">
-        <v>476.5534961216154</v>
+        <v>917.7915542467122</v>
       </c>
       <c r="D31" t="n">
-        <v>313.2367232483861</v>
+        <v>754.4747813734829</v>
       </c>
       <c r="E31" t="n">
-        <v>147.0285174012396</v>
+        <v>588.2665755263364</v>
       </c>
       <c r="F31" t="n">
-        <v>147.0285174012396</v>
+        <v>416.4048013008968</v>
       </c>
       <c r="G31" t="n">
-        <v>42.07414723705197</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H31" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I31" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J31" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K31" t="n">
-        <v>488.7574867034314</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L31" t="n">
-        <v>596.464625587065</v>
+        <v>462.2668230414994</v>
       </c>
       <c r="M31" t="n">
-        <v>916.8376159906902</v>
+        <v>982.9343951000176</v>
       </c>
       <c r="N31" t="n">
-        <v>1029.493169250436</v>
+        <v>1493.622871201644</v>
       </c>
       <c r="O31" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P31" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q31" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="R31" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="S31" t="n">
-        <v>2103.707361852598</v>
+        <v>1949.049234102927</v>
       </c>
       <c r="T31" t="n">
-        <v>1864.162564038676</v>
+        <v>1851.716591650718</v>
       </c>
       <c r="U31" t="n">
-        <v>1864.162564038676</v>
+        <v>1851.716591650718</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.451096646705</v>
+        <v>1851.716591650718</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.598692819218</v>
+        <v>1576.864187823231</v>
       </c>
       <c r="X31" t="n">
-        <v>1065.034796265023</v>
+        <v>1334.300291269036</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.6920279547651</v>
+        <v>1107.957522958778</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>702.3907439121338</v>
+        <v>1216.510797606411</v>
       </c>
       <c r="C32" t="n">
-        <v>702.3907439121338</v>
+        <v>789.6100676197109</v>
       </c>
       <c r="D32" t="n">
-        <v>702.3907439121338</v>
+        <v>789.6100676197109</v>
       </c>
       <c r="E32" t="n">
-        <v>276.4138040599913</v>
+        <v>363.6331277675685</v>
       </c>
       <c r="F32" t="n">
-        <v>276.4138040599913</v>
+        <v>363.6331277675685</v>
       </c>
       <c r="G32" t="n">
         <v>42.07414723705197</v>
@@ -6697,16 +6697,16 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I32" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J32" t="n">
         <v>218.2468288562427</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L32" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441462</v>
       </c>
       <c r="M32" t="n">
         <v>1001.624145372458</v>
@@ -6715,7 +6715,7 @@
         <v>1310.954347754825</v>
       </c>
       <c r="O32" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P32" t="n">
         <v>1842.716767506419</v>
@@ -6727,25 +6727,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T32" t="n">
-        <v>1891.448521909667</v>
+        <v>1832.196735023442</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.448521909667</v>
+        <v>1574.000212480161</v>
       </c>
       <c r="V32" t="n">
-        <v>1533.959107035917</v>
+        <v>1216.510797606411</v>
       </c>
       <c r="W32" t="n">
-        <v>1533.959107035917</v>
+        <v>1216.510797606411</v>
       </c>
       <c r="X32" t="n">
-        <v>1122.239108203664</v>
+        <v>1216.510797606411</v>
       </c>
       <c r="Y32" t="n">
-        <v>1122.239108203664</v>
+        <v>1216.510797606411</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>178.214045565104</v>
       </c>
       <c r="G33" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H33" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I33" t="n">
-        <v>61.80940056264829</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J33" t="n">
-        <v>139.4939236196041</v>
+        <v>162.9512294640159</v>
       </c>
       <c r="K33" t="n">
-        <v>284.9693059505253</v>
+        <v>308.4266117949372</v>
       </c>
       <c r="L33" t="n">
-        <v>774.5476657226884</v>
+        <v>511.5636290538129</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.744474587678</v>
+        <v>751.7604379188024</v>
       </c>
       <c r="N33" t="n">
-        <v>1263.639983054221</v>
+        <v>1000.655946385346</v>
       </c>
       <c r="O33" t="n">
-        <v>1487.720030896814</v>
+        <v>1224.735994227938</v>
       </c>
       <c r="P33" t="n">
-        <v>1664.422401271944</v>
+        <v>1401.438364603068</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R33" t="n">
         <v>1815.456240001607</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>787.6555363501952</v>
+        <v>558.5560205183907</v>
       </c>
       <c r="C34" t="n">
-        <v>615.6829732291112</v>
+        <v>558.5560205183907</v>
       </c>
       <c r="D34" t="n">
-        <v>452.3662003558819</v>
+        <v>395.2392476451614</v>
       </c>
       <c r="E34" t="n">
-        <v>452.3662003558819</v>
+        <v>395.2392476451614</v>
       </c>
       <c r="F34" t="n">
-        <v>280.5044261304424</v>
+        <v>395.2392476451614</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1355425855672</v>
+        <v>229.8703641002862</v>
       </c>
       <c r="H34" t="n">
         <v>115.1355425855672</v>
@@ -6858,52 +6858,52 @@
         <v>42.07414723705197</v>
       </c>
       <c r="J34" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K34" t="n">
-        <v>241.4748775894093</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L34" t="n">
-        <v>349.1820164730431</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M34" t="n">
-        <v>869.8495885315612</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N34" t="n">
-        <v>1029.493169250436</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O34" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P34" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q34" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R34" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S34" t="n">
-        <v>1941.942203988056</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.397406174133</v>
+        <v>1864.162564038676</v>
       </c>
       <c r="U34" t="n">
-        <v>1422.261398737759</v>
+        <v>1584.026556602302</v>
       </c>
       <c r="V34" t="n">
-        <v>1140.549931345788</v>
+        <v>1302.315089210331</v>
       </c>
       <c r="W34" t="n">
-        <v>865.6975275183011</v>
+        <v>1027.462685382844</v>
       </c>
       <c r="X34" t="n">
-        <v>787.6555363501952</v>
+        <v>784.8987888286487</v>
       </c>
       <c r="Y34" t="n">
-        <v>787.6555363501952</v>
+        <v>558.5560205183907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>869.557555704363</v>
+        <v>864.0425856603833</v>
       </c>
       <c r="C35" t="n">
-        <v>869.557555704363</v>
+        <v>864.0425856603833</v>
       </c>
       <c r="D35" t="n">
-        <v>869.557555704363</v>
+        <v>864.0425856603833</v>
       </c>
       <c r="E35" t="n">
-        <v>869.557555704363</v>
+        <v>864.0425856603833</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4333738937632</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G35" t="n">
-        <v>42.07414723705197</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H35" t="n">
         <v>42.07414723705197</v>
@@ -6937,22 +6937,22 @@
         <v>82.68042202224501</v>
       </c>
       <c r="J35" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L35" t="n">
-        <v>697.9573333441463</v>
+        <v>697.957333344146</v>
       </c>
       <c r="M35" t="n">
         <v>1001.624145372458</v>
       </c>
       <c r="N35" t="n">
-        <v>1310.954347754825</v>
+        <v>1310.954347754826</v>
       </c>
       <c r="O35" t="n">
-        <v>1600.879106339949</v>
+        <v>1600.87910633995</v>
       </c>
       <c r="P35" t="n">
         <v>1842.716767506419</v>
@@ -6964,25 +6964,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S35" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T35" t="n">
-        <v>2044.455574966373</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U35" t="n">
-        <v>2044.455574966373</v>
+        <v>1633.251999366387</v>
       </c>
       <c r="V35" t="n">
-        <v>1686.966160092622</v>
+        <v>1275.762584492636</v>
       </c>
       <c r="W35" t="n">
-        <v>1290.574810392969</v>
+        <v>1275.762584492636</v>
       </c>
       <c r="X35" t="n">
-        <v>1290.574810392969</v>
+        <v>864.0425856603833</v>
       </c>
       <c r="Y35" t="n">
-        <v>1289.405919995893</v>
+        <v>864.0425856603833</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>178.214045565104</v>
       </c>
       <c r="G36" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H36" t="n">
         <v>42.07414723705197</v>
@@ -7016,13 +7016,13 @@
         <v>61.80940056264829</v>
       </c>
       <c r="J36" t="n">
-        <v>425.9352661328915</v>
+        <v>425.9352661328912</v>
       </c>
       <c r="K36" t="n">
-        <v>571.4106484638128</v>
+        <v>571.4106484638125</v>
       </c>
       <c r="L36" t="n">
-        <v>774.5476657226884</v>
+        <v>774.5476657226882</v>
       </c>
       <c r="M36" t="n">
         <v>1014.744474587678</v>
@@ -7031,10 +7031,10 @@
         <v>1263.639983054221</v>
       </c>
       <c r="O36" t="n">
-        <v>1487.720030896814</v>
+        <v>1487.720030896813</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.422401271944</v>
+        <v>1664.422401271943</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.431386909859</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.1887651612408</v>
+        <v>543.5716890785117</v>
       </c>
       <c r="C37" t="n">
-        <v>591.2162020401568</v>
+        <v>371.5991259574277</v>
       </c>
       <c r="D37" t="n">
-        <v>452.3662003558819</v>
+        <v>208.2823530841984</v>
       </c>
       <c r="E37" t="n">
-        <v>452.3662003558819</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="F37" t="n">
-        <v>280.5044261304424</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G37" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H37" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="I37" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J37" t="n">
-        <v>83.18197532575655</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K37" t="n">
-        <v>410.8357700552104</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L37" t="n">
-        <v>894.9318025300091</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M37" t="n">
-        <v>1068.211113368589</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N37" t="n">
-        <v>1180.866666628335</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.323751247472</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P37" t="n">
         <v>2055.195488884412</v>
@@ -7119,28 +7119,28 @@
         <v>2103.707361852598</v>
       </c>
       <c r="R37" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S37" t="n">
-        <v>1941.942203988056</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T37" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.261398737759</v>
+        <v>1429.36842885263</v>
       </c>
       <c r="V37" t="n">
-        <v>1422.261398737759</v>
+        <v>1147.656961460659</v>
       </c>
       <c r="W37" t="n">
-        <v>1422.261398737759</v>
+        <v>1012.478353942965</v>
       </c>
       <c r="X37" t="n">
-        <v>1179.697502183564</v>
+        <v>769.9144573887696</v>
       </c>
       <c r="Y37" t="n">
-        <v>953.3547338733065</v>
+        <v>543.5716890785117</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>82.68042202224501</v>
       </c>
       <c r="J38" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K38" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L38" t="n">
         <v>697.957333344146</v>
@@ -7186,7 +7186,7 @@
         <v>1001.624145372458</v>
       </c>
       <c r="N38" t="n">
-        <v>1310.954347754825</v>
+        <v>1310.954347754826</v>
       </c>
       <c r="O38" t="n">
         <v>1600.87910633995</v>
@@ -7201,19 +7201,19 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S38" t="n">
-        <v>2044.455574966373</v>
+        <v>2093.502634067157</v>
       </c>
       <c r="T38" t="n">
-        <v>1832.196735023442</v>
+        <v>1881.243794124226</v>
       </c>
       <c r="U38" t="n">
-        <v>1574.000212480161</v>
+        <v>1881.243794124226</v>
       </c>
       <c r="V38" t="n">
-        <v>1574.000212480161</v>
+        <v>1523.754379250475</v>
       </c>
       <c r="W38" t="n">
-        <v>1539.083028383075</v>
+        <v>1127.363029550822</v>
       </c>
       <c r="X38" t="n">
         <v>1127.363029550822</v>
@@ -7244,7 +7244,7 @@
         <v>178.214045565104</v>
       </c>
       <c r="G39" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H39" t="n">
         <v>42.07414723705197</v>
@@ -7253,22 +7253,22 @@
         <v>85.26670640706013</v>
       </c>
       <c r="J39" t="n">
-        <v>162.9512294640159</v>
+        <v>320.4797658479854</v>
       </c>
       <c r="K39" t="n">
-        <v>308.4266117949372</v>
+        <v>465.9551481789067</v>
       </c>
       <c r="L39" t="n">
-        <v>511.5636290538127</v>
+        <v>669.0921654377823</v>
       </c>
       <c r="M39" t="n">
-        <v>751.7604379188022</v>
+        <v>909.2889743027717</v>
       </c>
       <c r="N39" t="n">
-        <v>1000.655946385345</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.735994227938</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P39" t="n">
         <v>1558.966900987038</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.3859491460516</v>
+        <v>385.9084845835755</v>
       </c>
       <c r="C40" t="n">
-        <v>681.4133860249676</v>
+        <v>213.9359214624915</v>
       </c>
       <c r="D40" t="n">
-        <v>681.4133860249676</v>
+        <v>213.9359214624915</v>
       </c>
       <c r="E40" t="n">
-        <v>515.2051801778211</v>
+        <v>213.9359214624915</v>
       </c>
       <c r="F40" t="n">
-        <v>343.3434059523815</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G40" t="n">
-        <v>177.9745224075063</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H40" t="n">
         <v>42.07414723705197</v>
@@ -7335,49 +7335,49 @@
         <v>161.1036919739774</v>
       </c>
       <c r="K40" t="n">
-        <v>488.7574867034314</v>
+        <v>241.4748775894094</v>
       </c>
       <c r="L40" t="n">
-        <v>972.85351917823</v>
+        <v>725.5709100642081</v>
       </c>
       <c r="M40" t="n">
-        <v>1493.521091236748</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N40" t="n">
-        <v>1606.176644496494</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O40" t="n">
-        <v>1706.931404812427</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P40" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q40" t="n">
         <v>2103.707361852598</v>
       </c>
       <c r="R40" t="n">
-        <v>2103.707361852598</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="S40" t="n">
-        <v>1949.049234102926</v>
+        <v>2096.600331737728</v>
       </c>
       <c r="T40" t="n">
-        <v>1831.742160996721</v>
+        <v>1857.055533923805</v>
       </c>
       <c r="U40" t="n">
-        <v>1551.606153560346</v>
+        <v>1576.919526487431</v>
       </c>
       <c r="V40" t="n">
-        <v>1269.894686168375</v>
+        <v>1295.20805909546</v>
       </c>
       <c r="W40" t="n">
-        <v>1269.894686168375</v>
+        <v>1020.355655267973</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.894686168375</v>
+        <v>777.791758713778</v>
       </c>
       <c r="Y40" t="n">
-        <v>1043.551917858117</v>
+        <v>576.0744532956412</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1488.021424435567</v>
+        <v>1317.391679849351</v>
       </c>
       <c r="C41" t="n">
-        <v>1148.002699357854</v>
+        <v>890.4909498626515</v>
       </c>
       <c r="D41" t="n">
-        <v>1148.002699357854</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="E41" t="n">
-        <v>722.0257595057121</v>
+        <v>467.1983290476518</v>
       </c>
       <c r="F41" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G41" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H41" t="n">
         <v>42.07414723705197</v>
@@ -7411,22 +7411,22 @@
         <v>82.68042202224501</v>
       </c>
       <c r="J41" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562428</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497116</v>
       </c>
       <c r="L41" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441463</v>
       </c>
       <c r="M41" t="n">
         <v>1001.624145372458</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.954347754825</v>
+        <v>1310.954347754826</v>
       </c>
       <c r="O41" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P41" t="n">
         <v>1842.716767506419</v>
@@ -7438,25 +7438,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S41" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="T41" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.510839309318</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V41" t="n">
-        <v>1488.021424435567</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W41" t="n">
-        <v>1488.021424435567</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X41" t="n">
-        <v>1488.021424435567</v>
+        <v>1737.240044140882</v>
       </c>
       <c r="Y41" t="n">
-        <v>1488.021424435567</v>
+        <v>1737.240044140882</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>178.214045565104</v>
       </c>
       <c r="G42" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949143</v>
       </c>
       <c r="H42" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I42" t="n">
-        <v>61.80940056264829</v>
+        <v>85.26670640706013</v>
       </c>
       <c r="J42" t="n">
-        <v>139.4939236196041</v>
+        <v>162.9512294640159</v>
       </c>
       <c r="K42" t="n">
-        <v>465.9551481789068</v>
+        <v>308.4266117949372</v>
       </c>
       <c r="L42" t="n">
-        <v>669.0921654377823</v>
+        <v>511.5636290538129</v>
       </c>
       <c r="M42" t="n">
-        <v>909.2889743027717</v>
+        <v>751.7604379188024</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.184482769315</v>
+        <v>1000.655946385346</v>
       </c>
       <c r="O42" t="n">
-        <v>1382.264530611908</v>
+        <v>1224.735994227938</v>
       </c>
       <c r="P42" t="n">
-        <v>1558.966900987038</v>
+        <v>1401.438364603068</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.975886624954</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.2773681284508</v>
+        <v>607.9348496202474</v>
       </c>
       <c r="C43" t="n">
-        <v>379.3048050073668</v>
+        <v>435.9622864991634</v>
       </c>
       <c r="D43" t="n">
-        <v>379.3048050073668</v>
+        <v>435.9622864991634</v>
       </c>
       <c r="E43" t="n">
-        <v>379.3048050073668</v>
+        <v>269.7540806520169</v>
       </c>
       <c r="F43" t="n">
-        <v>207.4430307819272</v>
+        <v>269.7540806520169</v>
       </c>
       <c r="G43" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="H43" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I43" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="J43" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575658</v>
       </c>
       <c r="K43" t="n">
-        <v>488.7574867034314</v>
+        <v>163.5531609411885</v>
       </c>
       <c r="L43" t="n">
-        <v>596.464625587065</v>
+        <v>462.266823041499</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.132197645583</v>
+        <v>982.9343951000171</v>
       </c>
       <c r="N43" t="n">
-        <v>1627.820673747209</v>
+        <v>1493.622871201643</v>
       </c>
       <c r="O43" t="n">
-        <v>1728.575434063143</v>
+        <v>1972.07995582078</v>
       </c>
       <c r="P43" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884412</v>
       </c>
       <c r="Q43" t="n">
         <v>2103.707361852598</v>
@@ -7596,25 +7596,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S43" t="n">
-        <v>2044.030781620529</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T43" t="n">
-        <v>1804.485983806607</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="U43" t="n">
-        <v>1524.349976370233</v>
+        <v>1823.571354416224</v>
       </c>
       <c r="V43" t="n">
-        <v>1242.638508978261</v>
+        <v>1541.859887024253</v>
       </c>
       <c r="W43" t="n">
-        <v>967.7861051507743</v>
+        <v>1267.007483196766</v>
       </c>
       <c r="X43" t="n">
-        <v>967.7861051507743</v>
+        <v>1024.443586642571</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.4433368405164</v>
+        <v>798.1008183323131</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>549.3534192542</v>
+        <v>1212.887211842591</v>
       </c>
       <c r="C44" t="n">
-        <v>549.3534192542</v>
+        <v>785.9864818558908</v>
       </c>
       <c r="D44" t="n">
-        <v>549.3534192542</v>
+        <v>362.6938610408911</v>
       </c>
       <c r="E44" t="n">
-        <v>123.3764794020576</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="F44" t="n">
-        <v>123.3764794020576</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="G44" t="n">
-        <v>123.3764794020576</v>
+        <v>42.07414723705197</v>
       </c>
       <c r="H44" t="n">
         <v>42.07414723705197</v>
       </c>
       <c r="I44" t="n">
-        <v>82.68042202224566</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J44" t="n">
-        <v>218.2468288562433</v>
+        <v>218.2468288562428</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6707399497121</v>
+        <v>429.6707399497117</v>
       </c>
       <c r="L44" t="n">
-        <v>697.9573333441467</v>
+        <v>697.9573333441464</v>
       </c>
       <c r="M44" t="n">
         <v>1001.624145372458</v>
@@ -7672,7 +7672,7 @@
         <v>2016.498708143957</v>
       </c>
       <c r="R44" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="S44" t="n">
         <v>2044.455574966373</v>
@@ -7681,19 +7681,19 @@
         <v>2044.455574966373</v>
       </c>
       <c r="U44" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="V44" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="W44" t="n">
-        <v>1786.259052423092</v>
+        <v>2044.455574966373</v>
       </c>
       <c r="X44" t="n">
-        <v>1374.53905359084</v>
+        <v>1632.735576134121</v>
       </c>
       <c r="Y44" t="n">
-        <v>969.2017835457301</v>
+        <v>1632.735576134121</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.07414723705197</v>
       </c>
       <c r="I45" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264831</v>
       </c>
       <c r="J45" t="n">
-        <v>162.9512294640159</v>
+        <v>139.4939236196041</v>
       </c>
       <c r="K45" t="n">
-        <v>308.4266117949372</v>
+        <v>465.9551481789064</v>
       </c>
       <c r="L45" t="n">
-        <v>774.5476657226884</v>
+        <v>669.092165437782</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.744474587678</v>
+        <v>909.2889743027715</v>
       </c>
       <c r="N45" t="n">
-        <v>1263.639983054221</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O45" t="n">
-        <v>1487.720030896814</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R45" t="n">
         <v>1815.456240001607</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>343.3434059523815</v>
+        <v>213.7319240566537</v>
       </c>
       <c r="C46" t="n">
-        <v>343.3434059523815</v>
+        <v>213.7319240566537</v>
       </c>
       <c r="D46" t="n">
-        <v>343.3434059523815</v>
+        <v>213.7319240566537</v>
       </c>
       <c r="E46" t="n">
-        <v>343.3434059523815</v>
+        <v>213.7319240566537</v>
       </c>
       <c r="F46" t="n">
-        <v>343.3434059523815</v>
+        <v>213.7319240566537</v>
       </c>
       <c r="G46" t="n">
-        <v>177.9745224075063</v>
+        <v>177.9745224075064</v>
       </c>
       <c r="H46" t="n">
         <v>42.07414723705197</v>
@@ -7806,52 +7806,52 @@
         <v>42.07414723705197</v>
       </c>
       <c r="J46" t="n">
-        <v>161.1036919739774</v>
+        <v>83.1819753257566</v>
       </c>
       <c r="K46" t="n">
-        <v>488.7574867034314</v>
+        <v>410.8357700552106</v>
       </c>
       <c r="L46" t="n">
-        <v>596.464625587065</v>
+        <v>894.9318025300092</v>
       </c>
       <c r="M46" t="n">
-        <v>710.5561728744412</v>
+        <v>1009.023349817385</v>
       </c>
       <c r="N46" t="n">
-        <v>1221.244648976067</v>
+        <v>1121.678903077131</v>
       </c>
       <c r="O46" t="n">
-        <v>1507.950253869573</v>
+        <v>1600.135987696268</v>
       </c>
       <c r="P46" t="n">
-        <v>1903.821991506513</v>
+        <v>1996.007725333208</v>
       </c>
       <c r="Q46" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="R46" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852599</v>
       </c>
       <c r="S46" t="n">
-        <v>1941.942203988056</v>
+        <v>1949.049234102927</v>
       </c>
       <c r="T46" t="n">
-        <v>1702.397406174133</v>
+        <v>1709.504436289005</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.261398737759</v>
+        <v>1429.36842885263</v>
       </c>
       <c r="V46" t="n">
-        <v>1140.549931345788</v>
+        <v>1147.656961460659</v>
       </c>
       <c r="W46" t="n">
-        <v>865.6975275183011</v>
+        <v>872.8045576331722</v>
       </c>
       <c r="X46" t="n">
-        <v>623.1336309641061</v>
+        <v>630.2406610789773</v>
       </c>
       <c r="Y46" t="n">
-        <v>396.7908626538482</v>
+        <v>403.8978927687193</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>289.3346894073611</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>182.8139820488699</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>77.9547056960662</v>
       </c>
       <c r="L13" t="n">
-        <v>245.9641633915522</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>410.6828533041837</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>265.640441079672</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>289.3346894073612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>410.6828533041837</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>114.9242965964173</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>209.6917917457441</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>289.3346894073611</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>182.8139820488702</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>258.5380231783558</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>410.6828533041838</v>
+        <v>393.8700638509229</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>289.3346894073611</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>59.78561974869041</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>410.6828533041837</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>114.9242965964174</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14.81745345587157</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.5172359514896</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>40.03335943310853</v>
+        <v>192.9358820370472</v>
       </c>
       <c r="M25" t="n">
-        <v>410.6828533041837</v>
+        <v>410.6828533041838</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>265.6404410796723</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.29356805174389</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10041,19 +10041,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>410.6828533041836</v>
+        <v>410.6828533041837</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>93.06164078761377</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.640441079672</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>192.9358820370476</v>
       </c>
       <c r="M31" t="n">
-        <v>208.3650940568172</v>
+        <v>410.6828533041839</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>289.3346894073611</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>192.9358820370472</v>
       </c>
       <c r="M34" t="n">
-        <v>410.6828533041837</v>
+        <v>410.6828533041838</v>
       </c>
       <c r="N34" t="n">
-        <v>47.46265399912026</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>289.3346894073611</v>
+        <v>289.3346894073608</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>192.9358820370472</v>
       </c>
       <c r="M37" t="n">
-        <v>59.785619748691</v>
+        <v>410.6828533041838</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>159.1197337211814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>410.6828533041837</v>
+        <v>144.7191290388211</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>114.9242965964173</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>182.8139820488701</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.1197337211813</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>192.9358820370472</v>
       </c>
       <c r="M43" t="n">
-        <v>410.6828533041837</v>
+        <v>410.6828533041838</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>93.06164078761402</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>182.8139820488696</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6404410796724</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>187.8291359369416</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>59.78561974869135</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1136478495507838</v>
+        <v>0.1136478495507731</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1018657343322502</v>
+        <v>0.1018657343322577</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>85.68362606450307</v>
+        <v>106.1168991734653</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.59410506078824</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3346473620106</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>90.85491750100414</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>31.27840146650141</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>257.867169782978</v>
       </c>
       <c r="G14" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>274.8164617558294</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>59.76207562486076</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.035959813722016</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.9595732465411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>398.335634390144</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.65926901736314</v>
+        <v>25.63414852860669</v>
       </c>
       <c r="T17" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>162.2387685811643</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>133.7496361258911</v>
+        <v>145.4566580944695</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>7.035959813722023</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T19" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T20" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U20" t="n">
-        <v>203.9094295716095</v>
+        <v>202.7799288455977</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7151947094264</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>79.28139382112013</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S22" t="n">
-        <v>73.29081825614534</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>391.4812213018606</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>417.0891609841781</v>
       </c>
       <c r="G23" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.65926901736314</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.6145573178477</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>27.88739135959007</v>
+        <v>85.48642455559315</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T25" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>339.7797815778604</v>
+        <v>182.3411388937766</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3116384384687763</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>71.76918202737235</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.5413714187498</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>74.60321622507195</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>255.6145573178477</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>280.8615676366006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>59.81036824688067</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.035959813722023</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S31" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>140.7900338080958</v>
       </c>
       <c r="U31" t="n">
         <v>277.3346473620106</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24931,7 +24931,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>166.3393741354341</v>
+        <v>79.99224366493274</v>
       </c>
       <c r="H32" t="n">
         <v>274.8164617558294</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5413714187498</v>
+        <v>20.95389811917796</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>162.8766863322282</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>280.2762820993693</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.65926901736313</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>400.1266958515531</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.22210347706491</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H37" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.33078139503003</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>138.2770583466948</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>48.55658850977628</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>357.8594239465408</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I40" t="n">
         <v>72.33078139503003</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T40" t="n">
-        <v>121.0153474606393</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>24.37920826319996</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>86.01318485989719</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>103.4594233266937</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10.64284202364118</v>
       </c>
       <c r="H43" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I43" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.035959813722023</v>
+        <v>7.035959813722016</v>
       </c>
       <c r="S43" t="n">
-        <v>94.03173204242663</v>
+        <v>153.1115464721751</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>104.3036537878203</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25882,7 +25882,7 @@
         <v>398.335634390144</v>
       </c>
       <c r="H44" t="n">
-        <v>194.3271529124738</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>210.1362515435019</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.351326890493</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.3153670767706</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503002</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.035959813722009</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355403.543088102</v>
+        <v>355403.5430881021</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355403.5430881021</v>
+        <v>355403.543088102</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355403.5430881021</v>
+        <v>355403.5430881019</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355403.543088102</v>
+        <v>355403.5430881021</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355403.5430881019</v>
+        <v>355403.5430881021</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355403.543088102</v>
+        <v>355403.5430881021</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355403.5430881021</v>
+        <v>355403.543088102</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>444673.0679014574</v>
       </c>
       <c r="C2" t="n">
-        <v>444673.7947401452</v>
+        <v>444673.7947401453</v>
       </c>
       <c r="D2" t="n">
         <v>444674.7276398959</v>
       </c>
       <c r="E2" t="n">
+        <v>261676.8388182155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>261676.8388182155</v>
+      </c>
+      <c r="G2" t="n">
         <v>261676.8388182154</v>
-      </c>
-      <c r="F2" t="n">
-        <v>261676.8388182154</v>
-      </c>
-      <c r="G2" t="n">
-        <v>261676.8388182153</v>
       </c>
       <c r="H2" t="n">
         <v>261676.8388182154</v>
       </c>
       <c r="I2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="J2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="K2" t="n">
+        <v>261676.8388182156</v>
+      </c>
+      <c r="L2" t="n">
+        <v>261676.8388182156</v>
+      </c>
+      <c r="M2" t="n">
         <v>261676.8388182155</v>
       </c>
-      <c r="L2" t="n">
-        <v>261676.8388182154</v>
-      </c>
-      <c r="M2" t="n">
-        <v>261676.8388182154</v>
-      </c>
       <c r="N2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="O2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="P2" t="n">
         <v>261676.8388182155</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>43630.90718593417</v>
       </c>
       <c r="C3" t="n">
-        <v>2668.793398452301</v>
+        <v>2668.793398452307</v>
       </c>
       <c r="D3" t="n">
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>506983.1748008891</v>
+        <v>506983.174800889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311834.7298003431</v>
+        <v>311834.7298003432</v>
       </c>
       <c r="C4" t="n">
         <v>310927.8361259664</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
-        <v>26634.73778379703</v>
+        <v>26634.73778379704</v>
       </c>
       <c r="F4" t="n">
-        <v>26634.73778379704</v>
+        <v>26634.73778379705</v>
       </c>
       <c r="G4" t="n">
         <v>26634.73778379705</v>
       </c>
       <c r="H4" t="n">
+        <v>26634.73778379703</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26634.73778379704</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26634.73778379704</v>
+      </c>
+      <c r="K4" t="n">
         <v>26634.73778379705</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26634.73778379705</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26634.73778379703</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26634.73778379704</v>
       </c>
       <c r="L4" t="n">
         <v>26634.73778379705</v>
       </c>
       <c r="M4" t="n">
-        <v>26634.73778379705</v>
+        <v>26634.73778379704</v>
       </c>
       <c r="N4" t="n">
         <v>26634.73778379704</v>
       </c>
       <c r="O4" t="n">
+        <v>26634.73778379705</v>
+      </c>
+      <c r="P4" t="n">
         <v>26634.73778379704</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26634.73778379705</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>42605.14469095521</v>
       </c>
       <c r="F5" t="n">
+        <v>42605.1446909552</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42605.14469095521</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42605.14469095521</v>
+      </c>
+      <c r="I5" t="n">
         <v>42605.14469095522</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>42605.14469095522</v>
       </c>
-      <c r="H5" t="n">
-        <v>42605.14469095522</v>
-      </c>
-      <c r="I5" t="n">
-        <v>42605.14469095521</v>
-      </c>
-      <c r="J5" t="n">
-        <v>42605.1446909552</v>
-      </c>
       <c r="K5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.14469095523</v>
       </c>
       <c r="L5" t="n">
         <v>42605.14469095522</v>
@@ -26511,7 +26511,7 @@
         <v>42605.14469095522</v>
       </c>
       <c r="P5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.14469095523</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54592.76061138249</v>
+        <v>54571.08319264954</v>
       </c>
       <c r="C6" t="n">
-        <v>96398.60344662762</v>
+        <v>96376.92837253578</v>
       </c>
       <c r="D6" t="n">
-        <v>96886.24369534888</v>
+        <v>96864.5716306109</v>
       </c>
       <c r="E6" t="n">
-        <v>-314546.2184574259</v>
+        <v>-315158.2062925562</v>
       </c>
       <c r="F6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="G6" t="n">
-        <v>192436.9563434631</v>
+        <v>191824.9685083327</v>
       </c>
       <c r="H6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="I6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="J6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="K6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083329</v>
       </c>
       <c r="L6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="M6" t="n">
-        <v>61373.88399268448</v>
+        <v>60761.89615755413</v>
       </c>
       <c r="N6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="O6" t="n">
-        <v>192436.9563434631</v>
+        <v>191824.9685083328</v>
       </c>
       <c r="P6" t="n">
-        <v>192436.9563434632</v>
+        <v>191824.9685083328</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>487.5593023300791</v>
+        <v>487.559302330079</v>
       </c>
       <c r="F3" t="n">
-        <v>487.5593023300791</v>
+        <v>487.559302330079</v>
       </c>
       <c r="G3" t="n">
         <v>487.559302330079</v>
       </c>
       <c r="H3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300791</v>
       </c>
       <c r="I3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="J3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="K3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="L3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="M3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="N3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="O3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
       <c r="P3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300792</v>
       </c>
     </row>
     <row r="4">
@@ -26801,22 +26801,22 @@
         <v>525.9268404631495</v>
       </c>
       <c r="F4" t="n">
+        <v>525.9268404631493</v>
+      </c>
+      <c r="G4" t="n">
+        <v>525.9268404631495</v>
+      </c>
+      <c r="H4" t="n">
+        <v>525.9268404631495</v>
+      </c>
+      <c r="I4" t="n">
         <v>525.9268404631496</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>525.9268404631496</v>
       </c>
-      <c r="H4" t="n">
-        <v>525.9268404631496</v>
-      </c>
-      <c r="I4" t="n">
-        <v>525.9268404631495</v>
-      </c>
-      <c r="J4" t="n">
-        <v>525.9268404631493</v>
-      </c>
       <c r="K4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631497</v>
       </c>
       <c r="L4" t="n">
         <v>525.9268404631496</v>
@@ -26831,7 +26831,7 @@
         <v>525.9268404631496</v>
       </c>
       <c r="P4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631497</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>45.27845430264449</v>
       </c>
       <c r="C3" t="n">
-        <v>2.930801160608368</v>
+        <v>2.930801160608375</v>
       </c>
       <c r="D3" t="n">
         <v>3.761692542679064</v>
       </c>
       <c r="E3" t="n">
-        <v>435.5883543241472</v>
+        <v>435.5883543241471</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27408,16 +27408,16 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L2" t="n">
-        <v>9.587300011056808</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M2" t="n">
         <v>5.4694522901083</v>
       </c>
       <c r="N2" t="n">
-        <v>4.800636714419433</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O2" t="n">
-        <v>6.721973758497697</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P2" t="n">
         <v>11.40009215480153</v>
@@ -27484,7 +27484,7 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K3" t="n">
-        <v>6.672659757291239</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L3" t="n">
         <v>1.368767089206766</v>
@@ -27648,7 +27648,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M5" t="n">
-        <v>3.400615951243275</v>
+        <v>3.400615951243282</v>
       </c>
       <c r="N5" t="n">
         <v>2.698324440689774</v>
@@ -27806,7 +27806,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M7" t="n">
-        <v>8.948026908651901</v>
+        <v>8.948026908651903</v>
       </c>
       <c r="N7" t="n">
         <v>7.445517414732592</v>
@@ -31050,19 +31050,19 @@
         <v>7.017477827146541</v>
       </c>
       <c r="J2" t="n">
-        <v>15.44905411404653</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K2" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L2" t="n">
-        <v>28.72474242156612</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M2" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N2" t="n">
-        <v>32.47898612002659</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O2" t="n">
         <v>30.6689855975264</v>
@@ -31080,7 +31080,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7968097837580953</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U2" t="n">
         <v>0.01456191495160424</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09739139227361268</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H3" t="n">
         <v>0.9405958148530489</v>
@@ -31159,7 +31159,7 @@
         <v>1.809002395959427</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3925556556993422</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U3" t="n">
         <v>0.006407328439053468</v>
@@ -31202,7 +31202,7 @@
         <v>0.08164967169329333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7259398083276449</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I4" t="n">
         <v>2.455428308740131</v>
@@ -31229,10 +31229,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.837046599699318</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R4" t="n">
-        <v>3.671266147227534</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S4" t="n">
         <v>1.422931096691302</v>
@@ -31284,7 +31284,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I5" t="n">
-        <v>7.471707824108768</v>
+        <v>7.471707824108769</v>
       </c>
       <c r="J5" t="n">
         <v>16.44904641557491</v>
@@ -31296,7 +31296,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M5" t="n">
-        <v>34.03064694818854</v>
+        <v>34.03064694818853</v>
       </c>
       <c r="N5" t="n">
         <v>34.58129839375625</v>
@@ -31393,7 +31393,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S6" t="n">
-        <v>1.926096197045998</v>
+        <v>1.926096197045997</v>
       </c>
       <c r="T6" t="n">
         <v>0.4179651487804657</v>
@@ -31469,7 +31469,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R7" t="n">
-        <v>3.908901270840141</v>
+        <v>3.90890127084014</v>
       </c>
       <c r="S7" t="n">
         <v>1.51503512660747</v>
@@ -31758,7 +31758,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I11" t="n">
-        <v>75.56434172092615</v>
+        <v>75.56434172092614</v>
       </c>
       <c r="J11" t="n">
         <v>166.3557239643721</v>
@@ -31767,7 +31767,7 @@
         <v>249.3241069498283</v>
       </c>
       <c r="L11" t="n">
-        <v>309.3086014169004</v>
+        <v>309.3086014169003</v>
       </c>
       <c r="M11" t="n">
         <v>344.1654164633829</v>
@@ -31779,10 +31779,10 @@
         <v>330.2442508561492</v>
       </c>
       <c r="P11" t="n">
-        <v>281.8558276349479</v>
+        <v>281.8558276349478</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.6619883798888</v>
+        <v>211.6619883798887</v>
       </c>
       <c r="R11" t="n">
         <v>123.1221990954446</v>
@@ -31791,7 +31791,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T11" t="n">
-        <v>8.580063702311239</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U11" t="n">
         <v>0.1568029917041459</v>
@@ -31837,10 +31837,10 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10698606878417</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J12" t="n">
-        <v>99.08032954237959</v>
+        <v>99.08032954237957</v>
       </c>
       <c r="K12" t="n">
         <v>169.3440644706276</v>
@@ -31849,19 +31849,19 @@
         <v>227.7039930363261</v>
       </c>
       <c r="M12" t="n">
-        <v>265.7198197698931</v>
+        <v>265.719819769893</v>
       </c>
       <c r="N12" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O12" t="n">
-        <v>249.5153723915076</v>
+        <v>249.5153723915075</v>
       </c>
       <c r="P12" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.8672258020248</v>
+        <v>133.8672258020247</v>
       </c>
       <c r="R12" t="n">
         <v>65.11216494136417</v>
@@ -31870,10 +31870,10 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.22704715888059</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06899424089576595</v>
+        <v>0.06899424089576593</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8792052992837491</v>
+        <v>0.879205299283749</v>
       </c>
       <c r="H13" t="n">
-        <v>7.816934388177339</v>
+        <v>7.816934388177338</v>
       </c>
       <c r="I13" t="n">
         <v>26.44010118209675</v>
       </c>
       <c r="J13" t="n">
-        <v>62.15981465936106</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K13" t="n">
-        <v>102.1476702258756</v>
+        <v>102.1476702258755</v>
       </c>
       <c r="L13" t="n">
         <v>130.7138496771494</v>
@@ -31940,10 +31940,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.62145465184194</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R13" t="n">
-        <v>39.53226736597657</v>
+        <v>39.53226736597656</v>
       </c>
       <c r="S13" t="n">
         <v>15.32215053388133</v>
@@ -31952,7 +31952,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04795665268820455</v>
+        <v>0.04795665268820454</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I14" t="n">
-        <v>75.56434172092615</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J14" t="n">
         <v>166.3557239643721</v>
@@ -32004,31 +32004,31 @@
         <v>249.3241069498283</v>
       </c>
       <c r="L14" t="n">
-        <v>309.3086014169004</v>
+        <v>309.3086014169003</v>
       </c>
       <c r="M14" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N14" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O14" t="n">
         <v>330.2442508561492</v>
       </c>
       <c r="P14" t="n">
-        <v>281.8558276349479</v>
+        <v>281.8558276349478</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.6619883798888</v>
+        <v>211.6619883798887</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S14" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T14" t="n">
-        <v>8.580063702311239</v>
+        <v>8.580063702311238</v>
       </c>
       <c r="U14" t="n">
         <v>0.1568029917041459</v>
@@ -32074,10 +32074,10 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I15" t="n">
-        <v>36.10698606878417</v>
+        <v>36.10698606878416</v>
       </c>
       <c r="J15" t="n">
-        <v>99.08032954237959</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K15" t="n">
         <v>169.3440644706276</v>
@@ -32086,31 +32086,31 @@
         <v>227.7039930363261</v>
       </c>
       <c r="M15" t="n">
-        <v>265.7198197698931</v>
+        <v>265.719819769893</v>
       </c>
       <c r="N15" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O15" t="n">
-        <v>249.5153723915076</v>
+        <v>249.5153723915075</v>
       </c>
       <c r="P15" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.8672258020248</v>
+        <v>133.8672258020247</v>
       </c>
       <c r="R15" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S15" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.22704715888059</v>
+        <v>4.227047158880589</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06899424089576595</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8792052992837491</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H16" t="n">
-        <v>7.816934388177339</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I16" t="n">
         <v>26.44010118209675</v>
       </c>
       <c r="J16" t="n">
-        <v>62.15981465936106</v>
+        <v>62.15981465936105</v>
       </c>
       <c r="K16" t="n">
-        <v>102.1476702258756</v>
+        <v>102.1476702258755</v>
       </c>
       <c r="L16" t="n">
         <v>130.7138496771494</v>
@@ -32171,25 +32171,25 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O16" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P16" t="n">
         <v>106.3358845606454</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.62145465184194</v>
+        <v>73.62145465184193</v>
       </c>
       <c r="R16" t="n">
-        <v>39.53226736597657</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S16" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T16" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04795665268820455</v>
+        <v>0.04795665268820454</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I20" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J20" t="n">
         <v>166.3557239643721</v>
@@ -32478,7 +32478,7 @@
         <v>249.3241069498283</v>
       </c>
       <c r="L20" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M20" t="n">
         <v>344.1654164633829</v>
@@ -32490,10 +32490,10 @@
         <v>330.2442508561492</v>
       </c>
       <c r="P20" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R20" t="n">
         <v>123.1221990954446</v>
@@ -32502,7 +32502,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T20" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U20" t="n">
         <v>0.1568029917041459</v>
@@ -32548,10 +32548,10 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I21" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J21" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237959</v>
       </c>
       <c r="K21" t="n">
         <v>169.3440644706276</v>
@@ -32560,19 +32560,19 @@
         <v>227.7039930363261</v>
       </c>
       <c r="M21" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N21" t="n">
         <v>272.7526327252015</v>
       </c>
       <c r="O21" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P21" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R21" t="n">
         <v>65.11216494136417</v>
@@ -32581,10 +32581,10 @@
         <v>19.47937401290456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837491</v>
       </c>
       <c r="H22" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177339</v>
       </c>
       <c r="I22" t="n">
         <v>26.44010118209675</v>
       </c>
       <c r="J22" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936106</v>
       </c>
       <c r="K22" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L22" t="n">
         <v>130.7138496771494</v>
@@ -32651,10 +32651,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184194</v>
       </c>
       <c r="R22" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S22" t="n">
         <v>15.32215053388133</v>
@@ -32663,7 +32663,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820455</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,31 +32706,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I23" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J23" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K23" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L23" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M23" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N23" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O23" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P23" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R23" t="n">
         <v>123.1221990954446</v>
@@ -32739,7 +32739,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T23" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U23" t="n">
         <v>0.1568029917041459</v>
@@ -32785,43 +32785,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I24" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J24" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K24" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L24" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M24" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N24" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O24" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P24" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R24" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S24" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I25" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J25" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K25" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L25" t="n">
         <v>130.7138496771494</v>
@@ -32888,10 +32888,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R25" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S25" t="n">
         <v>15.32215053388133</v>
@@ -32900,7 +32900,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,31 +32943,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I26" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J26" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K26" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L26" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M26" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N26" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O26" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P26" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R26" t="n">
         <v>123.1221990954446</v>
@@ -32976,7 +32976,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T26" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U26" t="n">
         <v>0.1568029917041459</v>
@@ -33022,43 +33022,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I27" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J27" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K27" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L27" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M27" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N27" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O27" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P27" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R27" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S27" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I28" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J28" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K28" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L28" t="n">
         <v>130.7138496771494</v>
@@ -33125,10 +33125,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R28" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S28" t="n">
         <v>15.32215053388133</v>
@@ -33137,7 +33137,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,31 +33180,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I29" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J29" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K29" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L29" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M29" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N29" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O29" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P29" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q29" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R29" t="n">
         <v>123.1221990954446</v>
@@ -33213,7 +33213,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T29" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U29" t="n">
         <v>0.1568029917041459</v>
@@ -33259,43 +33259,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I30" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J30" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K30" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L30" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M30" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N30" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O30" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P30" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R30" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S30" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I31" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J31" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K31" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L31" t="n">
         <v>130.7138496771494</v>
@@ -33362,10 +33362,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R31" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S31" t="n">
         <v>15.32215053388133</v>
@@ -33374,7 +33374,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,31 +33417,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I32" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J32" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K32" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L32" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M32" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N32" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O32" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P32" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R32" t="n">
         <v>123.1221990954446</v>
@@ -33450,7 +33450,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T32" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U32" t="n">
         <v>0.1568029917041459</v>
@@ -33496,43 +33496,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I33" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J33" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K33" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L33" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M33" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N33" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O33" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P33" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R33" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S33" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I34" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J34" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K34" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L34" t="n">
         <v>130.7138496771494</v>
@@ -33599,10 +33599,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R34" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S34" t="n">
         <v>15.32215053388133</v>
@@ -33611,7 +33611,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,31 +33654,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I35" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J35" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K35" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L35" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M35" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N35" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O35" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P35" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q35" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R35" t="n">
         <v>123.1221990954446</v>
@@ -33687,7 +33687,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T35" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U35" t="n">
         <v>0.1568029917041459</v>
@@ -33733,43 +33733,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I36" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J36" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K36" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L36" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M36" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N36" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O36" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P36" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R36" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S36" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I37" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J37" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K37" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L37" t="n">
         <v>130.7138496771494</v>
@@ -33836,10 +33836,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R37" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S37" t="n">
         <v>15.32215053388133</v>
@@ -33848,7 +33848,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,31 +33891,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I38" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J38" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K38" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L38" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M38" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N38" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O38" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P38" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R38" t="n">
         <v>123.1221990954446</v>
@@ -33924,7 +33924,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T38" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U38" t="n">
         <v>0.1568029917041459</v>
@@ -33970,43 +33970,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I39" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J39" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K39" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L39" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M39" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N39" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O39" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P39" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q39" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R39" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S39" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I40" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J40" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K40" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L40" t="n">
         <v>130.7138496771494</v>
@@ -34073,10 +34073,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R40" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S40" t="n">
         <v>15.32215053388133</v>
@@ -34085,7 +34085,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,31 +34128,31 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I41" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092615</v>
       </c>
       <c r="J41" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K41" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L41" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M41" t="n">
         <v>344.1654164633829</v>
       </c>
       <c r="N41" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O41" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P41" t="n">
-        <v>281.8558276349478</v>
+        <v>281.8558276349479</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R41" t="n">
         <v>123.1221990954446</v>
@@ -34161,7 +34161,7 @@
         <v>44.66435216822786</v>
       </c>
       <c r="T41" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311239</v>
       </c>
       <c r="U41" t="n">
         <v>0.1568029917041459</v>
@@ -34207,43 +34207,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I42" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J42" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K42" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L42" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M42" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N42" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O42" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P42" t="n">
         <v>200.2580840079904</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R42" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S42" t="n">
         <v>19.47937401290456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.227047158880589</v>
+        <v>4.22704715888059</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576595</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.816934388177338</v>
+        <v>7.81693438817734</v>
       </c>
       <c r="I43" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J43" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K43" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L43" t="n">
         <v>130.7138496771494</v>
@@ -34310,10 +34310,10 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R43" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S43" t="n">
         <v>15.32215053388133</v>
@@ -34322,7 +34322,7 @@
         <v>3.756604460576018</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820456</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I44" t="n">
-        <v>75.56434172092683</v>
+        <v>75.56434172092617</v>
       </c>
       <c r="J44" t="n">
         <v>166.3557239643721</v>
       </c>
       <c r="K44" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498284</v>
       </c>
       <c r="L44" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169004</v>
       </c>
       <c r="M44" t="n">
-        <v>344.1654164633829</v>
+        <v>344.165416463383</v>
       </c>
       <c r="N44" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156256</v>
       </c>
       <c r="O44" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561493</v>
       </c>
       <c r="P44" t="n">
-        <v>281.8558276349478</v>
+        <v>281.855827634948</v>
       </c>
       <c r="Q44" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798888</v>
       </c>
       <c r="R44" t="n">
         <v>123.1221990954446</v>
       </c>
       <c r="S44" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822787</v>
       </c>
       <c r="T44" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311241</v>
       </c>
       <c r="U44" t="n">
         <v>0.1568029917041459</v>
@@ -34444,43 +34444,43 @@
         <v>10.12835456349844</v>
       </c>
       <c r="I45" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878417</v>
       </c>
       <c r="J45" t="n">
-        <v>99.08032954237957</v>
+        <v>99.0803295423796</v>
       </c>
       <c r="K45" t="n">
         <v>169.3440644706276</v>
       </c>
       <c r="L45" t="n">
-        <v>227.7039930363261</v>
+        <v>227.7039930363262</v>
       </c>
       <c r="M45" t="n">
-        <v>265.719819769893</v>
+        <v>265.7198197698931</v>
       </c>
       <c r="N45" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252016</v>
       </c>
       <c r="O45" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915076</v>
       </c>
       <c r="P45" t="n">
-        <v>200.2580840079904</v>
+        <v>200.2580840079905</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.8672258020247</v>
+        <v>133.8672258020248</v>
       </c>
       <c r="R45" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136418</v>
       </c>
       <c r="S45" t="n">
-        <v>19.47937401290456</v>
+        <v>19.47937401290457</v>
       </c>
       <c r="T45" t="n">
-        <v>4.227047158880589</v>
+        <v>4.227047158880591</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576596</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837494</v>
       </c>
       <c r="H46" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177341</v>
       </c>
       <c r="I46" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209676</v>
       </c>
       <c r="J46" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936107</v>
       </c>
       <c r="K46" t="n">
-        <v>102.1476702258755</v>
+        <v>102.1476702258756</v>
       </c>
       <c r="L46" t="n">
-        <v>130.7138496771494</v>
+        <v>130.7138496771495</v>
       </c>
       <c r="M46" t="n">
         <v>137.8194270504517</v>
@@ -34547,19 +34547,19 @@
         <v>106.3358845606454</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184196</v>
       </c>
       <c r="R46" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597657</v>
       </c>
       <c r="S46" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T46" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576019</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820457</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.01643917696265</v>
+        <v>41.01643917696263</v>
       </c>
       <c r="J11" t="n">
-        <v>136.9357644787856</v>
+        <v>136.9357644787855</v>
       </c>
       <c r="K11" t="n">
         <v>213.559506155019</v>
@@ -35427,7 +35427,7 @@
         <v>292.8532915001251</v>
       </c>
       <c r="P11" t="n">
-        <v>244.2804658247166</v>
+        <v>244.2804658247165</v>
       </c>
       <c r="Q11" t="n">
         <v>175.5373137752907</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.93459931878417</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J12" t="n">
-        <v>78.46921520904625</v>
+        <v>367.8039046164074</v>
       </c>
       <c r="K12" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L12" t="n">
-        <v>205.1889063220966</v>
+        <v>205.1889063220965</v>
       </c>
       <c r="M12" t="n">
         <v>242.6230392575651</v>
@@ -35506,13 +35506,13 @@
         <v>226.3434826692853</v>
       </c>
       <c r="P12" t="n">
-        <v>361.3012248520317</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1201875130463</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R12" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K13" t="n">
-        <v>330.9634290196505</v>
+        <v>159.1377214692297</v>
       </c>
       <c r="L13" t="n">
-        <v>354.7592531730004</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M13" t="n">
-        <v>525.9268404631495</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N13" t="n">
-        <v>515.8469455571981</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O13" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P13" t="n">
-        <v>83.95508390265891</v>
+        <v>399.8704420575151</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.001891887057</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.01643917696265</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J14" t="n">
-        <v>136.9357644787856</v>
+        <v>136.9357644787855</v>
       </c>
       <c r="K14" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L14" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M14" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N14" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O14" t="n">
         <v>292.8532915001251</v>
       </c>
       <c r="P14" t="n">
-        <v>244.2804658247166</v>
+        <v>244.2804658247165</v>
       </c>
       <c r="Q14" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1096562887183</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K15" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L15" t="n">
-        <v>205.1889063220966</v>
+        <v>205.1889063220965</v>
       </c>
       <c r="M15" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O15" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P15" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.1201875130463</v>
+        <v>400.4548769204075</v>
       </c>
       <c r="R15" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K16" t="n">
-        <v>330.9634290196505</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L16" t="n">
-        <v>488.9858913886856</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M16" t="n">
-        <v>525.9268404631496</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N16" t="n">
-        <v>228.7177847375747</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O16" t="n">
-        <v>101.7724851676095</v>
+        <v>311.4642769133536</v>
       </c>
       <c r="P16" t="n">
-        <v>83.95508390265891</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q16" t="n">
         <v>201.9044144909954</v>
@@ -35968,13 +35968,13 @@
         <v>146.9448306372942</v>
       </c>
       <c r="L18" t="n">
-        <v>205.1889063220965</v>
+        <v>494.5235957294577</v>
       </c>
       <c r="M18" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N18" t="n">
-        <v>434.2235865605301</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O18" t="n">
         <v>226.3434826692853</v>
@@ -35986,7 +35986,7 @@
         <v>111.1201875130462</v>
       </c>
       <c r="R18" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722003</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52305867545918</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K19" t="n">
         <v>81.18301577316355</v>
       </c>
       <c r="L19" t="n">
-        <v>367.333112959804</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M19" t="n">
-        <v>525.9268404631496</v>
+        <v>509.1140510098887</v>
       </c>
       <c r="N19" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O19" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P19" t="n">
-        <v>399.8704420575151</v>
+        <v>83.9550839026589</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.00189188705698</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J20" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K20" t="n">
         <v>213.559506155019</v>
@@ -36138,7 +36138,7 @@
         <v>292.8532915001251</v>
       </c>
       <c r="P20" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q20" t="n">
         <v>175.5373137752907</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.93459931878416</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J21" t="n">
-        <v>367.8039046164073</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K21" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L21" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M21" t="n">
         <v>242.6230392575651</v>
@@ -36220,7 +36220,7 @@
         <v>178.4872428031618</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R21" t="n">
         <v>41.43924554722003</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2318633706318</v>
+        <v>101.3086784241496</v>
       </c>
       <c r="K22" t="n">
-        <v>330.9634290196504</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L22" t="n">
         <v>488.9858913886856</v>
       </c>
       <c r="M22" t="n">
-        <v>525.9268404631496</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N22" t="n">
         <v>113.7934881411574</v>
       </c>
       <c r="O22" t="n">
-        <v>216.6967817640269</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P22" t="n">
-        <v>83.9550839026589</v>
+        <v>399.8704420575151</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.9044144909954</v>
+        <v>49.001891887057</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J23" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K23" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L23" t="n">
         <v>270.9965589842774</v>
@@ -36369,19 +36369,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N23" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O23" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P23" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q23" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R23" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.93459931878416</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J24" t="n">
-        <v>78.46921520904624</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K24" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L24" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M24" t="n">
-        <v>257.4404927134366</v>
+        <v>242.6230392575651</v>
       </c>
       <c r="N24" t="n">
-        <v>525.9268404631495</v>
+        <v>251.4096045116599</v>
       </c>
       <c r="O24" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P24" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R24" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.52305867545918</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K25" t="n">
-        <v>81.18301577316355</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L25" t="n">
-        <v>148.8284492145567</v>
+        <v>301.7309718184954</v>
       </c>
       <c r="M25" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N25" t="n">
-        <v>515.846945557198</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O25" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P25" t="n">
-        <v>83.9550839026589</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J26" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K26" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L26" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M26" t="n">
         <v>306.7341535639511</v>
       </c>
       <c r="N26" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O26" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P26" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q26" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R26" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>43.62884764647289</v>
       </c>
       <c r="J27" t="n">
-        <v>78.46921520904624</v>
+        <v>237.5889489302275</v>
       </c>
       <c r="K27" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L27" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M27" t="n">
         <v>242.6230392575651</v>
@@ -36688,16 +36688,16 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O27" t="n">
-        <v>491.9839237489576</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P27" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R27" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.81662672720307</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K28" t="n">
-        <v>330.9634290196504</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L28" t="n">
         <v>108.7950897814482</v>
       </c>
       <c r="M28" t="n">
-        <v>525.9268404631493</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N28" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O28" t="n">
-        <v>483.2899844637744</v>
+        <v>101.7724851676095</v>
       </c>
       <c r="P28" t="n">
-        <v>399.8704420575151</v>
+        <v>177.0167246902727</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.00189188705698</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J29" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K29" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L29" t="n">
         <v>270.9965589842774</v>
@@ -36843,19 +36843,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N29" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O29" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P29" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q29" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R29" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J30" t="n">
-        <v>78.46921520904624</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K30" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L30" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M30" t="n">
         <v>242.6230392575651</v>
@@ -36925,16 +36925,16 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O30" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P30" t="n">
-        <v>444.1276838828337</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R30" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K31" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L31" t="n">
-        <v>108.7950897814482</v>
+        <v>301.7309718184958</v>
       </c>
       <c r="M31" t="n">
-        <v>323.609081215783</v>
+        <v>525.9268404631497</v>
       </c>
       <c r="N31" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O31" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P31" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J32" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K32" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L32" t="n">
         <v>270.9965589842774</v>
@@ -37080,19 +37080,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N32" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O32" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P32" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q32" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R32" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.93459931878416</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J33" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904627</v>
       </c>
       <c r="K33" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L33" t="n">
-        <v>494.5235957294577</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M33" t="n">
         <v>242.6230392575651</v>
@@ -37162,16 +37162,16 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O33" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P33" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.1201875130462</v>
+        <v>270.2399212342276</v>
       </c>
       <c r="R33" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K34" t="n">
-        <v>81.18301577316355</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L34" t="n">
-        <v>108.7950897814482</v>
+        <v>301.7309718184954</v>
       </c>
       <c r="M34" t="n">
         <v>525.9268404631496</v>
       </c>
       <c r="N34" t="n">
-        <v>161.2561421402777</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O34" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P34" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J35" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K35" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L35" t="n">
         <v>270.9965589842774</v>
@@ -37317,19 +37317,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N35" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O35" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P35" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q35" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R35" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.93459931878416</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J36" t="n">
-        <v>367.8039046164073</v>
+        <v>367.803904616407</v>
       </c>
       <c r="K36" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L36" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M36" t="n">
         <v>242.6230392575651</v>
@@ -37399,16 +37399,16 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O36" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P36" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R36" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722004</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.52305867545918</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K37" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L37" t="n">
-        <v>488.9858913886856</v>
+        <v>301.7309718184954</v>
       </c>
       <c r="M37" t="n">
-        <v>175.0296069076568</v>
+        <v>525.9268404631496</v>
       </c>
       <c r="N37" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O37" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P37" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.00189188705698</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J38" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K38" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L38" t="n">
         <v>270.9965589842774</v>
@@ -37554,19 +37554,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N38" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O38" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P38" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q38" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R38" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>43.62884764647289</v>
       </c>
       <c r="J39" t="n">
-        <v>78.46921520904624</v>
+        <v>237.5889489302275</v>
       </c>
       <c r="K39" t="n">
-        <v>146.9448306372942</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L39" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M39" t="n">
         <v>242.6230392575651</v>
@@ -37636,13 +37636,13 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O39" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P39" t="n">
-        <v>337.6069765243432</v>
+        <v>178.4872428031618</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R39" t="n">
         <v>147.9599529057107</v>
@@ -37703,25 +37703,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K40" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L40" t="n">
         <v>488.9858913886856</v>
       </c>
       <c r="M40" t="n">
-        <v>525.9268404631496</v>
+        <v>259.9631161977869</v>
       </c>
       <c r="N40" t="n">
-        <v>113.7934881411574</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O40" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P40" t="n">
-        <v>198.8793804990762</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q40" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696265</v>
       </c>
       <c r="J41" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K41" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L41" t="n">
         <v>270.9965589842774</v>
@@ -37791,19 +37791,19 @@
         <v>306.7341535639511</v>
       </c>
       <c r="N41" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O41" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P41" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247166</v>
       </c>
       <c r="Q41" t="n">
         <v>175.5373137752907</v>
       </c>
       <c r="R41" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.93459931878416</v>
+        <v>43.62884764647289</v>
       </c>
       <c r="J42" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904627</v>
       </c>
       <c r="K42" t="n">
-        <v>329.7588126861643</v>
+        <v>146.9448306372943</v>
       </c>
       <c r="L42" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M42" t="n">
         <v>242.6230392575651</v>
@@ -37873,13 +37873,13 @@
         <v>251.4096045116599</v>
       </c>
       <c r="O42" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P42" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1201875130462</v>
+        <v>270.2399212342276</v>
       </c>
       <c r="R42" t="n">
         <v>147.9599529057107</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2318633706318</v>
+        <v>41.5230586754592</v>
       </c>
       <c r="K43" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316358</v>
       </c>
       <c r="L43" t="n">
-        <v>108.7950897814482</v>
+        <v>301.7309718184954</v>
       </c>
       <c r="M43" t="n">
         <v>525.9268404631496</v>
       </c>
       <c r="N43" t="n">
-        <v>515.846945557198</v>
+        <v>515.8469455571981</v>
       </c>
       <c r="O43" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P43" t="n">
-        <v>177.0167246902729</v>
+        <v>83.95508390265893</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705701</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.01643917696333</v>
+        <v>41.01643917696266</v>
       </c>
       <c r="J44" t="n">
-        <v>136.9357644787855</v>
+        <v>136.9357644787856</v>
       </c>
       <c r="K44" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550191</v>
       </c>
       <c r="L44" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842775</v>
       </c>
       <c r="M44" t="n">
-        <v>306.7341535639511</v>
+        <v>306.7341535639512</v>
       </c>
       <c r="N44" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811796</v>
       </c>
       <c r="O44" t="n">
-        <v>292.8532915001251</v>
+        <v>292.8532915001252</v>
       </c>
       <c r="P44" t="n">
-        <v>244.2804658247165</v>
+        <v>244.2804658247167</v>
       </c>
       <c r="Q44" t="n">
-        <v>175.5373137752907</v>
+        <v>175.5373137752908</v>
       </c>
       <c r="R44" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064812</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878417</v>
       </c>
       <c r="J45" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904627</v>
       </c>
       <c r="K45" t="n">
-        <v>146.9448306372942</v>
+        <v>329.7588126861639</v>
       </c>
       <c r="L45" t="n">
-        <v>470.8293474017689</v>
+        <v>205.1889063220966</v>
       </c>
       <c r="M45" t="n">
-        <v>242.6230392575651</v>
+        <v>242.6230392575652</v>
       </c>
       <c r="N45" t="n">
         <v>251.4096045116599</v>
       </c>
       <c r="O45" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692854</v>
       </c>
       <c r="P45" t="n">
         <v>178.4872428031618</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.1201875130462</v>
+        <v>111.1201875130463</v>
       </c>
       <c r="R45" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2318633706318</v>
+        <v>41.52305867545921</v>
       </c>
       <c r="K46" t="n">
-        <v>330.9634290196504</v>
+        <v>330.9634290196505</v>
       </c>
       <c r="L46" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886856</v>
       </c>
       <c r="M46" t="n">
-        <v>115.2439871589658</v>
+        <v>115.2439871589659</v>
       </c>
       <c r="N46" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411575</v>
       </c>
       <c r="O46" t="n">
-        <v>289.601621104551</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P46" t="n">
         <v>399.8704420575151</v>
       </c>
       <c r="Q46" t="n">
-        <v>201.9044144909954</v>
+        <v>108.7875116357484</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
